--- a/uniqsconfiggenerator/test/xlsx/百灵基础表_DT_Hero_Config.xlsx
+++ b/uniqsconfiggenerator/test/xlsx/百灵基础表_DT_Hero_Config.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="DT_Hero_Config" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -307,8 +308,50 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1=刀
+2=剑
+3=枪
+4=扇
+5=拳
+6=锤
+7=匕首
+8=弓箭
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -562,7 +605,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +655,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -645,7 +695,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -933,7 +993,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -969,6 +1029,15 @@
       <c r="D2" s="1">
         <v>2</v>
       </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
       <c r="T2" s="2" t="s">
         <v>60</v>
       </c>
@@ -1283,10 +1352,139 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B3:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="B3:B7">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/uniqsconfiggenerator/test/xlsx/百灵基础表_DT_Hero_Config.xlsx
+++ b/uniqsconfiggenerator/test/xlsx/百灵基础表_DT_Hero_Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\uniqss\uniqsconfiggenerator\uniqsconfiggenerator\test\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\uniqss\uniqsconfiggenerator\uniqsconfiggenerator\test\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DT_Hero_Config" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -507,16 +507,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Texture2D'/Game/UI/Texture/Hero/hero_main/B_UI_information_text_img02_6.B_UI_information_text_img02_6'</t>
-  </si>
-  <si>
     <t>图片名字</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Texture2D'/Game/UI/Texture/Hero/Common_headportrait_03.Common_headportrait_03'</t>
-  </si>
-  <si>
     <t>百灵名字</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -598,6 +592,22 @@
   </si>
   <si>
     <t>数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangsan.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangsan.ico</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyy</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +615,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +672,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -683,13 +699,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,11 +1008,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -1010,15 +1029,15 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1039,12 +1058,12 @@
         <v>3</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1098,15 +1117,15 @@
         <v>35</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1145,30 +1164,30 @@
         <v>25</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="T4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1222,15 +1241,15 @@
         <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1239,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -1251,7 +1270,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>14</v>
@@ -1284,15 +1303,15 @@
         <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1309,11 +1328,11 @@
       <c r="F7" s="1">
         <v>10001</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>43</v>
+      <c r="G7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
@@ -1346,7 +1365,7 @@
         <v>34</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1364,15 +1383,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1381,7 +1400,7 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1396,7 +1415,7 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1413,7 +1432,7 @@
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1430,7 +1449,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1447,7 +1466,7 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1456,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -1464,7 +1483,7 @@
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1473,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
